--- a/biology/Botanique/Karl_Sigismund_Kunth/Karl_Sigismund_Kunth.xlsx
+++ b/biology/Botanique/Karl_Sigismund_Kunth/Karl_Sigismund_Kunth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Sigismund Kunth est un botaniste allemand, né le 18 juin 1788 à Leipzig et mort le 22 mars 1850 à Berlin.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexander von Humboldt (1769-1859) et Aimé Bonpland (1773-1858) rapportent durant leur voyage en Amérique du Sud un herbier riche de plus de 70 000 spécimens dont 54 000 nouvelles espèces. Humboldt après avoir contacté plusieurs botanistes, finit par rencontrer Kunth, neveu de son ancien précepteur, et lui confie la tâche énorme de déterminer sa collection. Kunth va y consacrer vingt-quatre ans de sa vie.
 Il s’installe à Paris en 1813 pour y étudier les herbiers conservés par le Muséum national d'histoire naturelle et se lie d’amitié avec les botanistes Achille Richard (1794-1852) et Adrien de Jussieu (1797-1853). Avec ces deux derniers et avec le comte Hippolyte Jaubert (1798-1874), il fonde une éphémère Société d'histoire naturelle de Paris en 1821. En 1829, il devient professeur de botanique à l’université de Berlin et est le vice-directeur du jardin botanique de la ville.
-En taxonomie on rencontre parfois les initiales « H.B.K. »[1], rarement  « HBK » ; elles désignent ces trois auteurs, Humboldt, Bonpland et Kunth[2].
+En taxonomie on rencontre parfois les initiales « H.B.K. », rarement  « HBK » ; elles désignent ces trois auteurs, Humboldt, Bonpland et Kunth.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Correspondant de l’Académie des sciences, Kunth est notamment l’auteur de :
 Nova genera et species plantarum, quas in peregrinatione Orbis Novi collegerunt, descripserunt, partim adumbraverunt Amat. Bonpland et Alex. de Humboldt. Ex schedis autographis Amati Bonplandi in ordinem digessit Carol. Sigismund. Kunth. Accedunt... Alexandri de Humboldt notationes ad geographiam plantarum spectantes (sept volumes, Paris, 1815).
